--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_315__Reeval_LHS_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_315__Reeval_LHS_Modell_1.3.xlsx
@@ -5882,7 +5882,7 @@
                   <c:v>65.22572326660156</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>66.56800079345703</c:v>
+                  <c:v>66.56800842285156</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>68.77320098876953</c:v>
@@ -5897,7 +5897,7 @@
                   <c:v>71.18475341796875</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>65.17543029785156</c:v>
+                  <c:v>65.17543792724609</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>64.61052703857422</c:v>
@@ -5939,7 +5939,7 @@
                   <c:v>67.82700347900391</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>69.09132385253906</c:v>
+                  <c:v>69.09131622314453</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>65.74147796630859</c:v>
@@ -5987,7 +5987,7 @@
                   <c:v>68.92811584472656</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>66.30602264404297</c:v>
+                  <c:v>66.3060302734375</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>69.24840545654297</c:v>
@@ -6002,19 +6002,19 @@
                   <c:v>64.53521728515625</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>67.61750793457031</c:v>
+                  <c:v>67.61750030517578</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>67.55378723144531</c:v>
+                  <c:v>67.55379486083984</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>65.96077728271484</c:v>
+                  <c:v>65.96076965332031</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>64.74839019775391</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>69.73244476318359</c:v>
+                  <c:v>69.73246002197266</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>71.16168975830078</c:v>
@@ -6032,7 +6032,7 @@
                   <c:v>64.01764678955078</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>73.10458374023438</c:v>
+                  <c:v>73.10459136962891</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>67.573974609375</c:v>
@@ -6077,7 +6077,7 @@
                   <c:v>67.70867919921875</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>67.33219146728516</c:v>
+                  <c:v>67.33219909667969</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>65.02589416503906</c:v>
@@ -6107,7 +6107,7 @@
                   <c:v>69.45375823974609</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>71.47647857666016</c:v>
+                  <c:v>71.47648620605469</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>69.15299224853516</c:v>
@@ -6122,7 +6122,7 @@
                   <c:v>69.56279754638672</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>70.73678588867188</c:v>
+                  <c:v>70.73677825927734</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>67.77541351318359</c:v>
@@ -6140,7 +6140,7 @@
                   <c:v>70.62382507324219</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>68.59629058837891</c:v>
+                  <c:v>68.59629821777344</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>62.44895935058594</c:v>
@@ -6955,7 +6955,7 @@
         <v>92.8593</v>
       </c>
       <c r="F5">
-        <v>66.56800079345703</v>
+        <v>66.56800842285156</v>
       </c>
       <c r="G5">
         <v>99</v>
@@ -7091,7 +7091,7 @@
         <v>57.1515</v>
       </c>
       <c r="F10">
-        <v>65.17543029785156</v>
+        <v>65.17543792724609</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7371,7 +7371,7 @@
         <v>85.872</v>
       </c>
       <c r="F24">
-        <v>69.09132385253906</v>
+        <v>69.09131622314453</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>90.7071</v>
       </c>
       <c r="F40">
-        <v>66.30602264404297</v>
+        <v>66.3060302734375</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>88.4863</v>
       </c>
       <c r="F45">
-        <v>67.61750793457031</v>
+        <v>67.61750030517578</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>54.5106</v>
       </c>
       <c r="F46">
-        <v>67.55378723144531</v>
+        <v>67.55379486083984</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>60.7068</v>
       </c>
       <c r="F47">
-        <v>65.96077728271484</v>
+        <v>65.96076965332031</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>53.5828</v>
       </c>
       <c r="F49">
-        <v>69.73244476318359</v>
+        <v>69.73246002197266</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>52.6674</v>
       </c>
       <c r="F55">
-        <v>73.10458374023438</v>
+        <v>73.10459136962891</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>51.1284</v>
       </c>
       <c r="F70">
-        <v>67.33219146728516</v>
+        <v>67.33219909667969</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>66.4979</v>
       </c>
       <c r="F80">
-        <v>71.47647857666016</v>
+        <v>71.47648620605469</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>43.913</v>
       </c>
       <c r="F85">
-        <v>70.73678588867188</v>
+        <v>70.73677825927734</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>60.5769</v>
       </c>
       <c r="F91">
-        <v>68.59629058837891</v>
+        <v>68.59629821777344</v>
       </c>
     </row>
     <row r="92" spans="1:6">
